--- a/data/income_statement/1digit/size/N_IS_LARGE.xlsx
+++ b/data/income_statement/1digit/size/N_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>N-Administrative and support service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>N-Administrative and support service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,641 +841,726 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>13456872.39639</v>
+        <v>13167682.10057</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>16494707.3704</v>
+        <v>16533290.14743</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>22048262.40789</v>
+        <v>21656057.90585</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>25475409.04483</v>
+        <v>24967593.52535</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>30973832.38688</v>
+        <v>30370059.13695</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>39643689.20777</v>
+        <v>39264347.22305001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>44949160.74576</v>
+        <v>46930566.44354</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>55447957.32201999</v>
+        <v>54652990.08509</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>75062722.90593</v>
+        <v>73668558.69243999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>84641760.43107998</v>
+        <v>83116902.89406</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>106174297.57022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>104813763.54199</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>93608353.494</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>10479553.69198</v>
+        <v>10215402.63948</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>12628405.83335</v>
+        <v>12709645.25981</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>17174190.25427</v>
+        <v>16838490.28627</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>21243588.54038</v>
+        <v>20839331.77215</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>26545511.55943</v>
+        <v>25980505.59713</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>33376861.08775</v>
+        <v>33046283.39862</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>39573518.57072999</v>
+        <v>41078067.11231001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>49971541.01436999</v>
+        <v>49291817.03216</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>65234248.34919</v>
+        <v>63992028.89731999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>71885091.06089999</v>
+        <v>70639307.78229001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>86029345.71992999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>84977662.42579</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>86522332.565</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2661884.00494</v>
+        <v>2643000.25053</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>3435075.85573</v>
+        <v>3401363.54877</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>4485135.78193</v>
+        <v>4452130.578610001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3744543.31682</v>
+        <v>3658043.300689999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3892646.18953</v>
+        <v>3873367.9</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5580873.12258</v>
+        <v>5570901.590690001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4324224.212350001</v>
+        <v>4821885.63012</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4144299.75287</v>
+        <v>4059429.75489</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>7904658.41813</v>
+        <v>7810776.91371</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>11056809.47669</v>
+        <v>10872778.38813</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>18311388.02402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>18115538.08776</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5123209.109</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>315434.6994700001</v>
+        <v>309279.21056</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>431225.68132</v>
+        <v>422281.33885</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>388936.37169</v>
+        <v>365437.04097</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>487277.1876300001</v>
+        <v>470218.45251</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>535674.63792</v>
+        <v>516185.63982</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>685954.9974400001</v>
+        <v>647162.2337400001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1051417.96268</v>
+        <v>1030613.70111</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1332116.55478</v>
+        <v>1301743.29804</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1923816.13861</v>
+        <v>1865752.88141</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1699859.89349</v>
+        <v>1604816.72364</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1833563.82627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1720563.02844</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1962811.82</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>88265.49231999999</v>
+        <v>78852.42032999998</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>135292.53303</v>
+        <v>134505.86253</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>212128.30623</v>
+        <v>210128.66522</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>252564.91956</v>
+        <v>249523.33112</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>271129.12055</v>
+        <v>219321.69559</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>358669.14386</v>
+        <v>326059.89489</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>492966.03412</v>
+        <v>499222.6661999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>734606.2427899999</v>
+        <v>756980.93767</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1016696.7688</v>
+        <v>989291.1633900001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1124175.44178</v>
+        <v>942001.3693199999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1148081.99074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1093930.41646</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1520633.906</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>61164.29622</v>
+        <v>59181.90655999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>70115.2467</v>
+        <v>70128.36902</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>121750.09181</v>
+        <v>119920.71812</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>138489.69985</v>
+        <v>136596.84306</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>149354.30555</v>
+        <v>145599.5343300001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>206384.68498</v>
+        <v>200659.50435</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>273168.9141999999</v>
+        <v>280056.17535</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>502460.05687</v>
+        <v>487928.1673</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>659838.13059</v>
+        <v>638522.65147</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>647273.60415</v>
+        <v>614096.1492400001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>878046.42526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>855386.9852900001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1230378.216</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>25992.20966</v>
+        <v>18561.52733</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>58010.92817</v>
+        <v>57213.67772</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>83940.69286</v>
+        <v>83772.96791000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>109809.25019</v>
+        <v>108935.27615</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>117643.21852</v>
+        <v>69591.42609000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>147451.62879</v>
+        <v>120611.59039</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>214225.07399</v>
+        <v>213635.43455</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>218469.72775</v>
+        <v>258891.5217</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>340255.58666</v>
+        <v>336363.34074</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>449387.2626599999</v>
+        <v>300856.24359</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>237457.92975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>206638.70271</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>160880.633</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1108.98644</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>7166.35816</v>
+        <v>7163.81579</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>6437.521559999999</v>
+        <v>6434.979189999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>4265.96952</v>
+        <v>3991.21191</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4131.59648</v>
+        <v>4130.73517</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4832.830089999999</v>
+        <v>4788.800149999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5572.04593</v>
+        <v>5531.0563</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>13676.45817</v>
+        <v>10161.24867</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>16603.05155</v>
+        <v>14405.17118</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>27514.57497</v>
+        <v>27048.97649</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>32577.63573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>31904.72846</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>129375.057</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>13368606.90407</v>
+        <v>13088829.68024</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>16359414.83737</v>
+        <v>16398784.2849</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>21836134.10166</v>
+        <v>21445929.24063</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>25222844.12527</v>
+        <v>24718070.19423</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>30702703.26632999</v>
+        <v>30150737.44136</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>39285020.06391</v>
+        <v>38938287.32816</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>44456194.71164</v>
+        <v>46431343.77734</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>54713351.07923</v>
+        <v>53896009.14742</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>74046026.13713001</v>
+        <v>72679267.52905001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>83517584.98929998</v>
+        <v>82174901.52474001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>105026215.57948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>103719833.12553</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>92087719.588</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>11885416.83056</v>
+        <v>11714058.39215</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>14881364.24569</v>
+        <v>14954756.72411</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>19334158.51417</v>
+        <v>19067436.6949</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>22513481.90091</v>
+        <v>22141111.51555</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>27271057.34392</v>
+        <v>26898727.29215</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>35743635.42741</v>
+        <v>35506620.94571</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>39837435.56561</v>
+        <v>41624211.20565</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>48713865.35438</v>
+        <v>47981142.95822</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>65707944.51055</v>
+        <v>64727642.89534999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>72972667.00072999</v>
+        <v>72182673.24924</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>93058284.23796</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>92128840.38511001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>81139308.44499999</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>163809.52293</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>104498.39577</v>
+        <v>102021.79486</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>284977.49162</v>
+        <v>283473.52036</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>145872.27318</v>
+        <v>132433.81449</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>180249.22077</v>
+        <v>182711.5956</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>311240.2012899999</v>
+        <v>311565.97838</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>347750.74374</v>
+        <v>352452.07788</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>475989.74133</v>
+        <v>473664.1860399999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1162625.95359</v>
+        <v>1143034.86297</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>223212.46631</v>
+        <v>207121.76474</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>560430.41137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>506787.9367899999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>983928.221</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>471107.0711</v>
+        <v>438776.45041</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>608459.89988</v>
+        <v>593917.57044</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>907858.7968400001</v>
+        <v>876995.6286800001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>821800.34211</v>
+        <v>777002.4447800001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1077664.07715</v>
+        <v>1075532.62686</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1621650.63276</v>
+        <v>1623082.11866</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2572103.06691</v>
+        <v>2550789.41234</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3091277.70311</v>
+        <v>2937098.14311</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3533695.958209999</v>
+        <v>3409510.56243</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4071378.99659</v>
+        <v>3869735.31462</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3653553.74743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3478392.16813</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3220412.234</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>11230186.86396</v>
+        <v>11091997.10298</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>14116724.60132</v>
+        <v>14212338.09374</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>18066481.95079</v>
+        <v>17839170.17662</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>21357643.72928</v>
+        <v>21050180.83144</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>25733700.88981</v>
+        <v>25375751.46576</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>33336858.91445</v>
+        <v>33120183.76064</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>36542767.16561</v>
+        <v>38027717.30189</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>44185011.35321001</v>
+        <v>43644269.95106</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>59944911.75063999</v>
+        <v>59148165.14921001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>67416169.67076001</v>
+        <v>66907626.47604001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>88041519.24459</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>87424241.30024</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>76189898.757</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>20313.37257</v>
+        <v>19475.31583</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>51681.34872</v>
+        <v>46479.26507</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>74840.27492</v>
+        <v>67797.36924</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>188165.55634</v>
+        <v>181494.42484</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>279443.15619</v>
+        <v>264731.60393</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>473885.67891</v>
+        <v>451789.08803</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>374814.58935</v>
+        <v>693252.4135399999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>961586.5567300001</v>
+        <v>926110.67801</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1066710.84811</v>
+        <v>1026932.32074</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1261905.86707</v>
+        <v>1198189.69384</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>802780.8345700001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>719418.9799500001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>745069.233</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1483190.07351</v>
+        <v>1374771.28809</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1478050.59168</v>
+        <v>1444027.56079</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2501975.58749</v>
+        <v>2378492.54573</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2709362.22436</v>
+        <v>2576958.67868</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3431645.92241</v>
+        <v>3252010.14921</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3541384.6365</v>
+        <v>3431666.38245</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4618759.146029999</v>
+        <v>4807132.57169</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5999485.724850001</v>
+        <v>5914866.1892</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>8338081.626580001</v>
+        <v>7951624.633700002</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>10544917.98857</v>
+        <v>9992228.2755</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>11967931.34152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>11590992.74042</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>10948411.143</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1058523.62353</v>
+        <v>976725.5841699998</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1203327.41066</v>
+        <v>1157383.382</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1639545.7193</v>
+        <v>1529907.60012</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2138102.26027</v>
+        <v>1988537.61151</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2323126.82013</v>
+        <v>2195694.32456</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3049916.4214</v>
+        <v>2920388.27356</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3602421.87374</v>
+        <v>3631592.55544</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4634003.11201</v>
+        <v>4484826.37745</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>6148685.44541</v>
+        <v>5704731.920390001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>6471620.471510001</v>
+        <v>6077065.161009999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>7218939.85065</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6909654.96437</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>7515657.97</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2909.5275</v>
+        <v>2909.527500000001</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>2897.08196</v>
@@ -1583,16 +1569,16 @@
         <v>3556.95787</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>4808.51647</v>
+        <v>4805.58363</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2105.27485</v>
+        <v>2097.15665</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2509.72457</v>
+        <v>2504.04596</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2739.2688</v>
+        <v>2712.98008</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>3263.3999</v>
@@ -1606,464 +1592,524 @@
       <c r="M21" s="48" t="n">
         <v>13943.74972</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>31581.631</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>174468.55286</v>
+        <v>162697.13853</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>227599.28879</v>
+        <v>216156.26106</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>325765.25755</v>
+        <v>314053.88278</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>495214.37798</v>
+        <v>485800.7383200001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>514543.09799</v>
+        <v>491304.21488</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>758866.5719499999</v>
+        <v>735722.2238399999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>915212.5676199999</v>
+        <v>926297.99146</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1159216.50009</v>
+        <v>1182026.33929</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1605104.99739</v>
+        <v>1504301.97564</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1706160.91545</v>
+        <v>1593176.09569</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1876707.51877</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1817001.95501</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1369141.471</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>881145.5431700001</v>
+        <v>811118.91814</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>972831.0399099999</v>
+        <v>938330.0389800001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1310223.50388</v>
+        <v>1212296.75947</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1638079.36582</v>
+        <v>1497931.28956</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1806478.44729</v>
+        <v>1702292.95303</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2288540.12488</v>
+        <v>2182162.00376</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2684470.03732</v>
+        <v>2702581.5839</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3471523.21202</v>
+        <v>3299536.63826</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4438377.9625</v>
+        <v>4095227.45923</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4626891.10193</v>
+        <v>4345320.61119</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5328288.58216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5078709.259640001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6114934.868</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>424666.44998</v>
+        <v>398045.70392</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>274723.18102</v>
+        <v>286644.17879</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>862429.8681900001</v>
+        <v>848584.9456100001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>571259.9640899999</v>
+        <v>588421.0671699999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1108519.10228</v>
+        <v>1056315.82465</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>491468.2151</v>
+        <v>511278.10889</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1016337.27229</v>
+        <v>1175540.01625</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1365482.61284</v>
+        <v>1430039.81175</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2189396.18117</v>
+        <v>2246892.71331</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4073297.51706</v>
+        <v>3915163.11449</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4748991.49087</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4681337.77605</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3432753.173</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1181227.85795</v>
+        <v>964187.6270099999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1614473.92996</v>
+        <v>1094986.96251</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1736182.64285</v>
+        <v>1450601.54206</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1790284.78789</v>
+        <v>1169614.28615</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1847840.81954</v>
+        <v>1561441.59029</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2905944.526780001</v>
+        <v>2602141.97052</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4770270.514649999</v>
+        <v>4481971.45285</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3954633.95251</v>
+        <v>3651870.40091</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>7688656.064730001</v>
+        <v>7039076.931760001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>22538200.66049</v>
+        <v>21134760.61726</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>15888074.58533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>13032714.7388</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>14945809.013</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>56669.10418</v>
+        <v>14754.43299</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>114581.18477</v>
+        <v>5843.009639999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>64756.88955000001</v>
+        <v>9714.32944</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>74804.25849999998</v>
+        <v>8769.921799999998</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>46451.59091000001</v>
+        <v>8966.166700000002</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>47129.97800000001</v>
+        <v>13302.46512</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>28090.56084</v>
+        <v>15308.46551</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>61762.11556000001</v>
+        <v>20711.75937</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>80353.27709000002</v>
+        <v>38424.70134</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>37693.87144</v>
+        <v>24414.24146</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>33350.60090999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>19189.53655</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>21271.512</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>29220.33635</v>
+        <v>13289.30004</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>72179.21959000001</v>
+        <v>12932.9863</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>104345.79048</v>
+        <v>24665.27104</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>263891.76753</v>
+        <v>18365.95308</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>33710.79501000001</v>
+        <v>21724.00196</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>68251.70898000001</v>
+        <v>32616.49403</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>68810.83531999998</v>
+        <v>38924.37858</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>103817.5331</v>
+        <v>44560.48629</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>101336.79729</v>
+        <v>64325.72213</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>146365.11467</v>
+        <v>139790.3783</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2492991.59536</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>677253.5235199999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>334072.058</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>93443.46351999999</v>
+        <v>59285.48547</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>69251.93457999999</v>
+        <v>58963.57901</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>107178.59731</v>
+        <v>81334.00070000002</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>151552.88403</v>
+        <v>120303.16927</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>154044.16263</v>
+        <v>105846.96122</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>184866.81442</v>
+        <v>143950.09269</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>245235.57193</v>
+        <v>230412.08571</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>297124.5092</v>
+        <v>290189.63837</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>486741.64436</v>
+        <v>430176.06981</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>784061.77084</v>
+        <v>569169.92639</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>932049.5154599998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>712590.78208</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>781121.3149999999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>10158.61704</v>
+        <v>9559.215119999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>9837.25937</v>
+        <v>9749.176459999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>14448.58084</v>
+        <v>14428.24327</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>17564.44546</v>
+        <v>16902.98153</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>16240.17691</v>
+        <v>16106.76205</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>20513.5243</v>
+        <v>19734.17423</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>27259.18459</v>
+        <v>26994.35591</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>30634.2488</v>
+        <v>30433.75504</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>29026.40766</v>
+        <v>28942.08362</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>12883.4001</v>
+        <v>11968.54825</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>53502.53148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>53171.29216</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>15486.169</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>27304.2503</v>
+        <v>25817.22616000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>24940.72112</v>
+        <v>24566.05213</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>15921.88739</v>
+        <v>15658.27226</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>9753.921510000002</v>
+        <v>9323.754469999998</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>15556.63715</v>
+        <v>13079.3245</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>19561.01903</v>
+        <v>16929.52184</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>35235.41281</v>
+        <v>34251.66338</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>44051.4041</v>
+        <v>45768.84795000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>122031.84536</v>
+        <v>119759.93861</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>47437.74141999999</v>
+        <v>40615.71463999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>139140.98787</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>87839.31359999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>122767.481</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>2159.10203</v>
+        <v>1864.72969</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2671.89013</v>
+        <v>2638.481670000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>22202.97174</v>
+        <v>15565.46018</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>28027.57509</v>
+        <v>27366.17565</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>20788.73464</v>
+        <v>4292.9317</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>39976.42206</v>
+        <v>30610.67743</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>142058.27747</v>
+        <v>102261.01456</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>38226.20864</v>
+        <v>31505.8833</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>86423.57789</v>
+        <v>85765.87759</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>74365.23682000001</v>
+        <v>47588.11907000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>53518.61442000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>46376.17609</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>71243.41800000001</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>774281.06716</v>
+        <v>700587.9064699999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>892905.53704</v>
+        <v>827182.0263399997</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1171409.61004</v>
+        <v>1071775.44712</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>887694.0786300001</v>
+        <v>749242.3063800001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1271678.17105</v>
+        <v>1109046.03443</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1959105.70658</v>
+        <v>1807725.25944</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3567336.36784</v>
+        <v>3400016.91563</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2496632.57958</v>
+        <v>2329897.16375</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>5486881.89826</v>
+        <v>5002860.14118</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>19713504.59206</v>
+        <v>18654960.65090001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>10817606.93622</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>10147083.70579</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>11647001.233</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1494.48565</v>
+        <v>1391.37031</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>291.50086</v>
+        <v>290.58326</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>20.78243</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>1279.21764</v>
+        <v>442.00161</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>925.5516699999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>512.61027</v>
+        <v>456.35675</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>253.34544</v>
+        <v>294.8013999999999</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>3827.6973</v>
+        <v>0.47363</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>592.93995</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>7865.349639999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>5632.303</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1.52275</v>
@@ -2102,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>4732.80925</v>
+        <v>256.07926</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>0</v>
@@ -2113,269 +2164,304 @@
       <c r="M34" s="48" t="n">
         <v>5287.28587</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>186495.90897</v>
+        <v>137636.43801</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>427777.45533</v>
+        <v>152783.84053</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>235770.28091</v>
+        <v>217312.48346</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>355716.6395</v>
+        <v>218898.02236</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>288426.0103499999</v>
+        <v>281434.86684</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>566024.1128999999</v>
+        <v>536814.29875</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>655990.95841</v>
+        <v>633507.7721700001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>873824.8469800001</v>
+        <v>858546.31395</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1295267.67687</v>
+        <v>1268229.45753</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1714809.6091</v>
+        <v>1639173.71421</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1352761.1681</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1276057.7735</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1947213.524</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>971029.73613</v>
+        <v>883387.76887</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>938373.45005</v>
+        <v>886040.53015</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2052562.35308</v>
+        <v>1697251.63086</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>879197.2347</v>
+        <v>767934.05113</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1930222.1012</v>
+        <v>1718010.02084</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2123853.61598</v>
+        <v>1962519.05093</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4159206.13604</v>
+        <v>3988044.32763</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3675046.1669</v>
+        <v>3458169.28768</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>7444475.00772</v>
+        <v>6912926.365209999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>23574657.01316</v>
+        <v>22342521.52789</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>13322891.95137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>11915008.43161</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>13758462.052</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>12664.47754</v>
+        <v>12245.73785</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>9748.326280000001</v>
+        <v>9514.604140000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>18708.65749</v>
+        <v>18492.70254</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>22638.97429</v>
+        <v>21887.43263</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>20307.04964</v>
+        <v>19951.6435</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>23284.97733</v>
+        <v>22375.26021</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>41154.96141</v>
+        <v>41032.30789</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>32764.15577999999</v>
+        <v>31575.05492</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>30185.08081</v>
+        <v>28704.54452</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>30424.10008</v>
+        <v>26473.77383</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>46496.47812</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>37713.38603999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>13295.513</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>54032.04233</v>
+        <v>50219.4042</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>50049.98885</v>
+        <v>48921.93691</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>59092.24604000001</v>
+        <v>58244.89621</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>41369.49965999999</v>
+        <v>38290.80986</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>49465.98474</v>
+        <v>44149.41873</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>137968.59207</v>
+        <v>131892.68805</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>86195.9069</v>
+        <v>83782.41790999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>89984.53523000002</v>
+        <v>86815.59176000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>125561.54452</v>
+        <v>117918.32133</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>137932.62104</v>
+        <v>119524.79809</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>276313.86167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>249091.44287</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>295932.654</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1519.39002</v>
+        <v>369.01002</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1016.84433</v>
+        <v>598.23636</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>3228.55985</v>
+        <v>1140.73134</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1244.6469</v>
+        <v>1041.29025</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>20204.85277</v>
+        <v>1547.46465</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>32238.39508</v>
+        <v>26759.85708</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>24056.87761</v>
+        <v>24022.72763</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>10072.94295</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>47270.94139</v>
+        <v>29373.41683</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>8904.65777</v>
+        <v>8864.49014</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>273.77838</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2.38701</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1110.599</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>774575.0096600001</v>
+        <v>700592.1226799999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>771571.0434400003</v>
+        <v>722293.05192</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1617397.38305</v>
+        <v>1461724.18817</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>715357.0436100001</v>
+        <v>613484.1186599999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1705875.79408</v>
+        <v>1525088.36356</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1676373.98099</v>
+        <v>1534985.50203</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3797644.8205</v>
+        <v>3612641.21053</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3149891.76573</v>
+        <v>2952090.96079</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>6559585.379430001</v>
+        <v>6070287.510059999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>22626676.08268</v>
+        <v>21461392.06537</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>11655602.77628</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>10897336.758</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13004396.767</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>225.38123</v>
+        <v>121.34829</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>137.85764</v>
+        <v>19.53904</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>863.8654200000001</v>
+        <v>16.00803</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>202.65724</v>
+        <v>8.876200000000001</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>283.25911</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1096.50515</v>
+        <v>1052.65274</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>585.78585</v>
+        <v>529.53233</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>6075.94087</v>
+        <v>416.89352</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>193.38845</v>
@@ -2384,13 +2470,18 @@
         <v>3.51242</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>11984.375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>11099.12188</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1331.46</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>80.223</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>128013.43535</v>
+        <v>119840.14583</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>105849.38951</v>
+        <v>104693.16178</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>353271.64123</v>
+        <v>157633.10457</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>98381.27948</v>
+        <v>93218.39000999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>134083.92418</v>
+        <v>126988.63461</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>252890.78311</v>
+        <v>245452.70857</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>209567.78377</v>
+        <v>226036.13134</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>386256.82634</v>
+        <v>377197.8437399999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>681678.6731199999</v>
+        <v>666449.1840199999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>770666.2489100001</v>
+        <v>726213.09778</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1332220.68192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>719765.33581</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>442314.836</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>375714.64713</v>
+        <v>321702.9597000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>356001.37606</v>
+        <v>305173.92856</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>625036.3554999999</v>
+        <v>472776.84388</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>532524.26364</v>
+        <v>457179.4913700001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>721709.63717</v>
+        <v>632376.0225</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>823472.2135399999</v>
+        <v>732007.72481</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1248625.55915</v>
+        <v>1097661.65978</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1590071.56207</v>
+        <v>1456312.38039</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2615040.30734</v>
+        <v>2230297.49564</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3238072.556470001</v>
+        <v>2708913.52636</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3749914.80486</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3212971.49898</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3373603.636</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>327472.17291</v>
+        <v>294480.09834</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>293384.26997</v>
+        <v>276129.2298799999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>479490.5338800001</v>
+        <v>441326.7118699999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>459635.71587</v>
+        <v>420496.4046</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>610677.94915</v>
+        <v>563537.2312700001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>738875.69861</v>
+        <v>683365.0451100001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1131218.2706</v>
+        <v>1035135.01852</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1457385.68057</v>
+        <v>1374610.79766</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2251228.25115</v>
+        <v>2102964.10916</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2852423.154139999</v>
+        <v>2474078.98141</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3431266.27198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2948835.95501</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3134896.663</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>48242.47422</v>
+        <v>27222.86136</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>62617.10608999999</v>
+        <v>29044.69868</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>145545.82162</v>
+        <v>31450.13201</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>72888.54777</v>
+        <v>36683.08677</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>111031.68802</v>
+        <v>68838.79123</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>84596.51493</v>
+        <v>48642.67969999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>117407.28855</v>
+        <v>62526.64126</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>132685.8815</v>
+        <v>81701.58273000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>363812.05619</v>
+        <v>127333.38648</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>385649.40233</v>
+        <v>234834.54495</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>318648.5328800001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>264135.5439700001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>238706.973</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>259149.92467</v>
+        <v>157142.60236</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>594822.28487</v>
+        <v>190416.68259</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-78986.19754000005</v>
+        <v>129158.01293</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>949823.25364</v>
+        <v>532921.8108199999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>304428.18345</v>
+        <v>267371.3716</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>450086.91236</v>
+        <v>418893.3036700001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>378776.09175</v>
+        <v>571805.4816899999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>54998.83637999989</v>
+        <v>167428.54459</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-181463.06916</v>
+        <v>142745.78422</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-201231.39208</v>
+        <v>-1511.322499999821</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3564259.31997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2586072.58426</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1246496.498</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>103518.86444</v>
+        <v>90109.2697</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>173529.87256</v>
+        <v>145046.76525</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>487046.0822000001</v>
+        <v>265793.16817</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>261298.2921</v>
+        <v>224733.55068</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>396150.0030800001</v>
+        <v>367436.2176499999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>533552.27628</v>
+        <v>479337.2568299999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>598702.70043</v>
+        <v>500434.54813</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>950977.7712800001</v>
+        <v>744255.0804099999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1192887.1779</v>
+        <v>1099654.73581</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1442440.24658</v>
+        <v>1333369.05617</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1643750.94405</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1271815.72323</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1655002.179</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>2407.02315</v>
+        <v>1619.75978</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1090.51908</v>
+        <v>1086.77796</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>27549.8645</v>
+        <v>27225.20761</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3589.3901</v>
+        <v>3469.827129999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>9184.966050000001</v>
+        <v>9161.963669999997</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>6595.087259999999</v>
+        <v>6905.78716</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>10916.73066</v>
+        <v>11598.96265</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>31139.54876</v>
+        <v>14318.58429</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>15848.17351</v>
+        <v>14850.93998</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>14868.45116</v>
+        <v>13758.85944</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>19171.11152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>19205.50589</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>24746.998</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>101111.84129</v>
+        <v>88489.50991999998</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>172439.35348</v>
+        <v>143959.98729</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>459496.2176999999</v>
+        <v>238567.96056</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>257708.902</v>
+        <v>221263.72355</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>386965.0370299999</v>
+        <v>358274.2539800001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>526957.18902</v>
+        <v>472431.46967</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>587785.96977</v>
+        <v>488835.58548</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>919838.22252</v>
+        <v>729936.49612</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1177039.00439</v>
+        <v>1084803.79583</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1427571.79542</v>
+        <v>1319610.19673</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1624579.83253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1252610.21734</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1630255.181</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>142933.21027</v>
+        <v>105823.17061</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>171720.74103</v>
+        <v>156316.76596</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>447188.62709</v>
+        <v>385124.40691</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>172528.99777</v>
+        <v>137923.61883</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>243610.16218</v>
+        <v>189263.92177</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>313996.38316</v>
+        <v>285789.32101</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>288581.01352</v>
+        <v>266063.97145</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>551496.73036</v>
+        <v>440196.99031</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>642315.6137399999</v>
+        <v>552492.39962</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>789577.5016800001</v>
+        <v>748455.6701300001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1061667.88466</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>919027.0813600001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>679281.578</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>93.23233999999999</v>
+        <v>28.28226</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>47.12454999999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>4701.348849999999</v>
+        <v>237.88721</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>813.73612</v>
+        <v>813.7361199999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>4267.35034</v>
+        <v>89.68713999999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7148.250559999999</v>
+        <v>135.51768</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7661.55516</v>
+        <v>7654.41016</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6414.87237</v>
+        <v>144.53019</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2036.96237</v>
+        <v>1887.02637</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>1974.3732</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1887.43056</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1812.51477</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>825.655</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>10609.45555</v>
+        <v>9064.18492</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>17321.53494</v>
+        <v>17159.68802</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5030.86673</v>
+        <v>4696.888309999998</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>9200.914279999999</v>
+        <v>8238.729669999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>9427.03069</v>
+        <v>8787.873750000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>28847.4185</v>
+        <v>27462.80231</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>22692.05065</v>
+        <v>23973.61135</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>64571.94279000001</v>
+        <v>60538.24906</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>22847.11553</v>
+        <v>21930.11988</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>28005.24559</v>
+        <v>25455.15793</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>44002.38417</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>34341.09814</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>47882.421</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>132230.52238</v>
+        <v>96730.70342999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>154352.08154</v>
+        <v>139109.95339</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>437456.41151</v>
+        <v>380189.63139</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>162514.34737</v>
+        <v>128871.15304</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>229915.78115</v>
+        <v>180386.36088</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>278000.7141</v>
+        <v>258191.00102</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>258227.40771</v>
+        <v>234435.94994</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>480509.9152</v>
+        <v>379514.2110600001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>617431.53584</v>
+        <v>528675.2533700002</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>759597.8828900001</v>
+        <v>721026.139</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1015778.06993</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>882873.46845</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>630573.502</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>219735.57884</v>
+        <v>141428.70145</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>596631.4164000001</v>
+        <v>179146.68188</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-39128.74242999999</v>
+        <v>9826.774190000016</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1038592.54797</v>
+        <v>619731.7426699999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>456968.02435</v>
+        <v>445543.6674799999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>669642.80548</v>
+        <v>612441.2394900001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>688897.7786600001</v>
+        <v>806176.0583699999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>454479.8773</v>
+        <v>471486.63469</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>369108.4949999999</v>
+        <v>689908.1204100001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>451631.35282</v>
+        <v>583402.06354</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4146342.37936</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2938861.22613</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2222217.099</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>68080.23887</v>
+        <v>57504.02266</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>85847.66692999999</v>
+        <v>80632.82002</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>129752.34711</v>
+        <v>121548.16501</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>139602.89007</v>
+        <v>132579.14955</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>169069.35307</v>
+        <v>148381.85001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>213980.06006</v>
+        <v>208296.48471</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>253277.63426</v>
+        <v>263569.76433</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>313634.7815599999</v>
+        <v>306583.8549</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>358680.4609499999</v>
+        <v>348352.63216</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>501694.20326</v>
+        <v>434580.17633</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>864925.94385</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>786711.24849</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>912905.812</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>151655.33997</v>
+        <v>83924.67878999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>510783.74947</v>
+        <v>98513.86185999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-168881.08954</v>
+        <v>-111721.39082</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>898989.6579000001</v>
+        <v>487152.5931199999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>287898.67128</v>
+        <v>297161.81747</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>455662.74542</v>
+        <v>404144.75478</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>435620.1444</v>
+        <v>542606.2940399999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>140845.09574</v>
+        <v>164902.77979</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>10428.03404999998</v>
+        <v>341555.4882500001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-50062.85043999994</v>
+        <v>148821.88721</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3281416.43551</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2152149.97764</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1309311.287</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>610</v>
+        <v>546</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>694</v>
+        <v>634</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>775</v>
+        <v>700</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>876</v>
+        <v>786</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>926</v>
+        <v>866</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1018</v>
+        <v>953</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1041</v>
+        <v>989</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1130</v>
+        <v>1040</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1222</v>
+        <v>1093</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>965</v>
+        <v>935</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>718</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>